--- a/root/packages/mpi/ballot-2023-may/identity-system-to-oid.xlsx
+++ b/root/packages/mpi/ballot-2023-may/identity-system-to-oid.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
